--- a/publications.xlsx
+++ b/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB45CD-C48E-4EFB-9466-D04199542E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3152BCA5-A73F-40DB-8869-91F2E5DA63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.jocmr.2024.100315</t>
+  </si>
+  <si>
+    <t>EMORe: Motion-robust XD-CMR reconstruction using Expectation-Maximization (EM) algorithm.</t>
+  </si>
+  <si>
+    <t>Syed M. Arshad, Lee Potter, Xuan Lei, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>SCMR'25, Washington, DC</t>
+  </si>
+  <si>
+    <t>/assets/files/SCMR25_Abstract_Arshad.pdf</t>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,6 +839,26 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3152BCA5-A73F-40DB-8869-91F2E5DA63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB82B60-5EFF-4B2E-8CED-BCF29464BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -62,15 +62,9 @@
     <t>https://arxiv.org/abs/2412.04639</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2402.17877</t>
-  </si>
-  <si>
     <t>Abstracts</t>
   </si>
   <si>
-    <t>/assets/files/ISMRM24_Abstract_Arshad.pdf</t>
-  </si>
-  <si>
     <t>Published In</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
   </si>
   <si>
     <t>Motion artifact reduction in self-gated CMR 4D flow imaging under exercise stress.</t>
-  </si>
-  <si>
-    <t>Accelerated Real-time Cine and Flow under In-magnet Staged Exercise.</t>
   </si>
   <si>
     <t>Motion-Guided Deep Image Prior for Cardiac MRI.</t>
@@ -148,32 +139,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Preethi Chandrasekaran, Chong Chen, Yingmin Liu, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Syed M. Arshad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Christopher Crabtree, Matthew Tong, Yuchi Han, Rizwan Ahmad</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Marc Vornehm, Chong Chen, Muhammad Ahmad Sultan,</t>
     </r>
     <r>
@@ -237,9 +202,6 @@
     <t>arXiv preprint arXiv:2412.04639</t>
   </si>
   <si>
-    <t>arXiv preprint arXiv:2402.17877</t>
-  </si>
-  <si>
     <t>https://archive.ismrm.org/2023/1078.html</t>
   </si>
   <si>
@@ -264,7 +226,70 @@
     <t>SCMR'25, Washington, DC</t>
   </si>
   <si>
-    <t>/assets/files/SCMR25_Abstract_Arshad.pdf</t>
+    <t>Accelerated Real-time Cine and Flow Under In-magnet Staged Exercise.</t>
+  </si>
+  <si>
+    <t>Preethi S. Chandrasekaran, Chong Chen, Yingmin Liu, Syed M. Arshad, Christopher Crabtree, Matthew Tong, Yuchi Han, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>Journal of Cardiovascular Magnetic Resonance. 27(1): 101894</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jocmr.2025.101894</t>
+  </si>
+  <si>
+    <t>Ferumoxytol-enhanced free-running 5D whole-heart CMR at 0.55 T.</t>
+  </si>
+  <si>
+    <t>Xavier Sieber, Preethi S. Chandrasekaran, Juliet Varghese, Yingmin Liu, Christopher Roy, Jérôme Yerly, Syed M. Arshad, Rizwan Ahmad, Ruud B. Van Heeswijk, Mathias Stuber, Orlando Simonetti</t>
+  </si>
+  <si>
+    <t>https://archive.ismrm.org/2023/1087.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jocmr.2024.101509</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jocmr.2024.101341</t>
+  </si>
+  <si>
+    <t>Motion-Guided Deep Image Prior for Dynamic Cardiac MRI.</t>
+  </si>
+  <si>
+    <t>Marc Vornehm, Chong Chen, Muhammad Ahmad Sultan, Syed M. Arshad, Florian Knoll, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>ISMRM'25, Honolulu, Hawaii</t>
+  </si>
+  <si>
+    <t>https://submissions.mirasmart.com/ISMRM2025/Handlers/ViewTeaser.ashx?esbpgm=2906_120</t>
+  </si>
+  <si>
+    <t>https://submissions.mirasmart.com/ISMRM2025/Handlers/ViewTeaser.ashx?esbpgm=9952_2770</t>
+  </si>
+  <si>
+    <t>Motion-Guided Deep Image Prior for 3D Real-Time Cine (M-DIP-3D).</t>
+  </si>
+  <si>
+    <t>Chong Chen, Marc Vornehm, Muhammad Ahmad Sultan, Syed M. Arshad, Yuchi Han, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>Free-Running Time-Resolved 3D+time Cardiovascular MRI at 40 Hz in a One Minute Scan using Cartesian Sampling and CMR-MOTUS.</t>
+  </si>
+  <si>
+    <t>https://submissions.mirasmart.com/ISMRM2025/Handlers/ViewTeaser.ashx?esbpgm=37_324</t>
+  </si>
+  <si>
+    <t>https://submissions.mirasmart.com/ISMRM2025/Handlers/ViewTeaser.ashx?esbpgm=9812_4029</t>
+  </si>
+  <si>
+    <t>Juliet Varghese, Katherine Binzel, Syed M. Arshad, Ning Jin, Karl P. Kunze, René M. Botnar, Claudia M. Prieto, Rizwan Ahmad, Yuchi Han, Matthew S. Tong, Orlando P. Simonetti</t>
+  </si>
+  <si>
+    <t>Thomas E. Olausson, Maarten L. Terpstra, Edwin Versteeg, Casper Beijst, Syed M. Arshad, Birgitta K. Velthuis, Cornelis van den Berg, Alessandro Sbrizzi</t>
+  </si>
+  <si>
+    <t>Initial Experience With Non-Contrast, Gadolinium, And Ferumoxytol-Enhanced Image-Based Navigator 3D MRA Of The Thoracic Aorta At 0.55T</t>
   </si>
 </sst>
 </file>
@@ -666,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -709,13 +734,13 @@
         <v>45422</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -723,19 +748,19 @@
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>45631</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -743,122 +768,222 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>45349</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>45080</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45438</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45080</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45438</v>
+        <v>45352</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>45352</v>
+        <v>45687</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45757</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45687</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -868,9 +993,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{E3029E81-CA39-4E60-9EC6-281B96D3853C}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{E3029E81-CA39-4E60-9EC6-281B96D3853C}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{8B468B6D-634B-496B-80F3-8931FE0500A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB82B60-5EFF-4B2E-8CED-BCF29464BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D31E53-7771-456E-8AED-309C0A80DC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Type</t>
   </si>
@@ -59,9 +62,6 @@
     <t>https://doi.org/10.1002/mrm.30123</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2412.04639</t>
-  </si>
-  <si>
     <t>Abstracts</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Motion artifact reduction in self-gated CMR 4D flow imaging under exercise stress.</t>
-  </si>
-  <si>
-    <t>Motion-Guided Deep Image Prior for Cardiac MRI.</t>
   </si>
   <si>
     <t>Motion-robust free-running volumetric cardiovascular MRI.</t>
@@ -139,32 +136,6 @@
   </si>
   <si>
     <r>
-      <t>Marc Vornehm, Chong Chen, Muhammad Ahmad Sultan,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Syed M. Arshad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Yuchi Han, Florian Knoll, Rizwan Ahmad</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -187,21 +158,6 @@
     </r>
   </si>
   <si>
-    <t>Coil Reweighting to Suppress Motion Artifacts in Real-Time Exercise Cine Imaging.</t>
-  </si>
-  <si>
-    <t>Chong Chen, Yingmin Liu, Yu Ding, Matthew Tong, Preethi Chandrasekaran, Christopher Crabtree, Syed M. Arshad, Yuchi Han, Rizwan Ahmad</t>
-  </si>
-  <si>
-    <t>arXiv preprint arXiv:2405.16715</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2405.16715</t>
-  </si>
-  <si>
-    <t>arXiv preprint arXiv:2412.04639</t>
-  </si>
-  <si>
     <t>https://archive.ismrm.org/2023/1078.html</t>
   </si>
   <si>
@@ -290,6 +246,82 @@
   </si>
   <si>
     <t>Initial Experience With Non-Contrast, Gadolinium, And Ferumoxytol-Enhanced Image-Based Navigator 3D MRA Of The Thoracic Aorta At 0.55T</t>
+  </si>
+  <si>
+    <t>EMORe: Motion-Robust 5D MRI Reconstruction via Expectation-Maximization-Guided Binning Correction and Outlier Rejection.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Syed M. Arshad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Lee C. Potter, Yingmin Liu, Christopher Crabtree, Matthew S. Tong, Rizwan Ahmad</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2507.23224</t>
+  </si>
+  <si>
+    <t>A multi-dynamic low-rank deep image prior (ML-DIP) for real-time 3D cardiovascular MRI.</t>
+  </si>
+  <si>
+    <t>Chong Chen, Marc Vornehm, Zhenyu Bu, Preethi S. Chandrasekaran, Muhammad A. Sultan, Syed M. Arshad, Yingmin Liu, Yuchi Han, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2507.19404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-dynamic deep image prior for cardiac MRI. </t>
+  </si>
+  <si>
+    <t>Marc Vornehm, Chong Chen, Muhammad A. Sultan, Syed M. Arshad, Yuchi Han, Florian Knoll, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <r>
+      <t>Magn Reson Med</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. 2025; 94(6): 2668-2679</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/mrm.70000</t>
+  </si>
+  <si>
+    <t>Motion-robust whole-heart 5D MRI using Expectation-Maximization-Guided Binning Correction and Outlier Rejection (EMORe)</t>
+  </si>
+  <si>
+    <t>Syed M. Arshad, Lee Potter, Preethi Chandrasekaran, Yingmin Liu, Christopher Crabtree, Matthew Tong, Juliet Varghese, Yuchi Han, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>Under revision, submitted to IEEE Transactions on Medical Imaging (TMI)</t>
+  </si>
+  <si>
+    <t>Under revision, submitted to Journal of Cardiovascular Magnetic Resonance (JCMR)</t>
+  </si>
+  <si>
+    <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
   </si>
 </sst>
 </file>
@@ -299,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,13 +355,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +411,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -728,262 +794,299 @@
     </row>
     <row r="2" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>45422</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45631</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" s="2">
+        <v>45757</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45080</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45080</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45438</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45352</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>45687</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>45757</v>
+        <v>45422</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>45717</v>
+        <v>45352</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>45787</v>
+        <v>45080</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>45787</v>
+        <v>45080</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45787</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>45787</v>
+        <v>45971</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45860</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46057</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -993,11 +1096,18 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{E3029E81-CA39-4E60-9EC6-281B96D3853C}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{8B468B6D-634B-496B-80F3-8931FE0500A3}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{8B468B6D-634B-496B-80F3-8931FE0500A3}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{C2DE850F-579B-4E2E-9547-01BE0B5312B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{8db864bc-821c-4dd3-a9c9-5002b5129ec6}" enabled="1" method="Standard" siteId="{0b95a125-791c-4f0a-9f9e-99e363117506}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D31E53-7771-456E-8AED-309C0A80DC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F43591-B803-4E6B-8CF4-F402BBBD13DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,10 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -932,7 +933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1090,6 +1091,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F16" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Abstracts"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{90CCC0E6-84D6-484D-AE29-6F58A007232E}">
       <formula1>"Journal Articles, Preprints, Abstracts"</formula1>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F43591-B803-4E6B-8CF4-F402BBBD13DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B2282D-551B-4096-A0CD-0C33936547F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -323,6 +323,18 @@
   <si>
     <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
   </si>
+  <si>
+    <t>Chong Chen, Marc Vornehm, Zhenyu Bu, Preethi Chandrasekaran, Muhammad A Sultan, Syed M. Arshad, Yingmin Liu, Yuchi Han, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>A multi-dynamic low-rank deep image prior (ML-DIP) for 3D real-time cardiovascular MRI</t>
+  </si>
+  <si>
+    <t>Journal of Cardiovascular Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jocmr.2025.102015</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +386,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -402,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,6 +438,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,10 +779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,7 +854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,7 +894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -893,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,13 +1109,33 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F16" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Abstracts"/>
+        <filter val="Journal Articles"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B2282D-551B-4096-A0CD-0C33936547F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB8A3CA-6F8B-4286-952A-D26B2F4963E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -277,15 +277,6 @@
     <t>https://doi.org/10.48550/arXiv.2507.23224</t>
   </si>
   <si>
-    <t>A multi-dynamic low-rank deep image prior (ML-DIP) for real-time 3D cardiovascular MRI.</t>
-  </si>
-  <si>
-    <t>Chong Chen, Marc Vornehm, Zhenyu Bu, Preethi S. Chandrasekaran, Muhammad A. Sultan, Syed M. Arshad, Yingmin Liu, Yuchi Han, Rizwan Ahmad</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.48550/arXiv.2507.19404</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multi-dynamic deep image prior for cardiac MRI. </t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>Under revision, submitted to IEEE Transactions on Medical Imaging (TMI)</t>
   </si>
   <si>
-    <t>Under revision, submitted to Journal of Cardiovascular Magnetic Resonance (JCMR)</t>
-  </si>
-  <si>
     <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
   </si>
   <si>
@@ -334,6 +322,30 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.jocmr.2025.102015</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>Systems And Methods for Cardiovascular Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Syed M. Arshad, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>https://patentscope.wipo.int/search/en/detail.jsf?docId=WO2024238469</t>
+  </si>
+  <si>
+    <t>Motion Robust Cardiovascular Imaging</t>
+  </si>
+  <si>
+    <t>App# 19/249,490</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-YaVKiiuCUCqnJGDdj_4LqgocqfurmsG/</t>
+  </si>
+  <si>
+    <t>App# PCT/US2024/029098, Publication# WO/2024/238469</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +404,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -420,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,6 +466,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,11 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,7 +863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,7 +883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,7 +903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -914,7 +943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,31 +1077,16 @@
         <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45971</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1082,19 +1096,19 @@
         <v>45860</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,13 +1116,13 @@
         <v>46057</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
@@ -1119,39 +1133,84 @@
         <v>45985</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45425</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="B19" s="2">
+        <v>45833</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F16" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Journal Articles"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <dataValidations count="1">
+  <autoFilter ref="A1:F17" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{90CCC0E6-84D6-484D-AE29-6F58A007232E}">
-      <formula1>"Journal Articles, Preprints, Abstracts"</formula1>
+      <formula1>"Journal Articles, Preprints, Abstracts, Patents"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{8B468B6D-634B-496B-80F3-8931FE0500A3}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{C2DE850F-579B-4E2E-9547-01BE0B5312B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB8A3CA-6F8B-4286-952A-D26B2F4963E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E51AC-E2A3-4A62-8A80-3CF818CE09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5BE356-52F7-40FD-99C5-D7144DE9F22F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Type</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Under revision, submitted to IEEE Transactions on Medical Imaging (TMI)</t>
   </si>
   <si>
-    <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
     <t>Chong Chen, Marc Vornehm, Zhenyu Bu, Preethi Chandrasekaran, Muhammad A Sultan, Syed M. Arshad, Yingmin Liu, Yuchi Han, Rizwan Ahmad</t>
   </si>
   <si>
@@ -346,6 +343,27 @@
   </si>
   <si>
     <t>App# PCT/US2024/029098, Publication# WO/2024/238469</t>
+  </si>
+  <si>
+    <t>SCMR'26, Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jocmr.2025.102629</t>
+  </si>
+  <si>
+    <t>Real4DFlow: Real-time whole-heart 4D flow reconstruction framework from a 5-minute scan using multi-dynamic deep image prior.</t>
+  </si>
+  <si>
+    <t>Ferumoxytol-enhanced whole-heart 4D flow on a commercial 0.55T system.</t>
+  </si>
+  <si>
+    <t>Syed M. Arshad, Salman Pervaiz, Lee Potter, Preethi Chandrasekaran, Yingmin Liu, Christopher Crabtree, Matthew Tong, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>Syed M. Arshad, Salman Pervaiz, Lee Potter, Preethi Chandrasekaran, Yingmin Liu, Christopher Crabtree, Orlando Simonetti, Juliet Varghese, Rizwan Ahmad</t>
+  </si>
+  <si>
+    <t>(Upcoming) ISMRM'26, Cape Town, South Africa</t>
   </si>
 </sst>
 </file>
@@ -808,10 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,12 +1102,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1122,10 +1141,13 @@
         <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1133,56 +1155,90 @@
         <v>45985</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>45425</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
         <v>45833</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46063</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46062</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,8 +1254,14 @@
       <c r="F29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <autoFilter ref="A1:F19" xr:uid="{9533A49D-0186-4A28-972E-F20EC5E4ADC2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Abstracts"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{90CCC0E6-84D6-484D-AE29-6F58A007232E}">
       <formula1>"Journal Articles, Preprints, Abstracts, Patents"</formula1>
     </dataValidation>
@@ -1208,9 +1270,10 @@
     <hyperlink ref="F12" r:id="rId1" xr:uid="{1415C3DA-2723-4A3D-9711-999961AE4FD5}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{78C2FD08-5ED4-482D-817F-08491B60CFF3}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{8B468B6D-634B-496B-80F3-8931FE0500A3}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{6E5E6C68-D5BF-4E9C-A774-DE8B67AEDB45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
